--- a/artfynd/A 16645-2023.xlsx
+++ b/artfynd/A 16645-2023.xlsx
@@ -13769,10 +13769,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111743515</v>
+        <v>111743554</v>
       </c>
       <c r="B114" t="n">
-        <v>96348</v>
+        <v>88966</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13781,25 +13781,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>220787</v>
+        <v>5754</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13809,10 +13809,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>339441.7613444271</v>
+        <v>339577.2032005055</v>
       </c>
       <c r="R114" t="n">
-        <v>6571017.506567059</v>
+        <v>6571127.007499221</v>
       </c>
       <c r="S114" t="n">
         <v>5</v>
@@ -13881,10 +13881,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111743519</v>
+        <v>111743520</v>
       </c>
       <c r="B115" t="n">
-        <v>90666</v>
+        <v>56398</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13893,38 +13893,43 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>4364</v>
+        <v>100109</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P115" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>339118.4126724883</v>
+        <v>339096.8530521042</v>
       </c>
       <c r="R115" t="n">
-        <v>6571062.424656671</v>
+        <v>6571013.66294401</v>
       </c>
       <c r="S115" t="n">
         <v>5</v>
@@ -13977,6 +13982,21 @@
       </c>
       <c r="AG115" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ115" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK115" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO115" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT115" t="inlineStr"/>
       <c r="AW115" t="inlineStr">
@@ -13993,10 +14013,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111743551</v>
+        <v>111743523</v>
       </c>
       <c r="B116" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -14005,25 +14025,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -14033,10 +14053,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>339522.8608171764</v>
+        <v>339009.0243061834</v>
       </c>
       <c r="R116" t="n">
-        <v>6571091.407599592</v>
+        <v>6571011.238422027</v>
       </c>
       <c r="S116" t="n">
         <v>5</v>
@@ -14217,10 +14237,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111743523</v>
+        <v>111743524</v>
       </c>
       <c r="B118" t="n">
-        <v>73634</v>
+        <v>94134</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14229,25 +14249,25 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>6426</v>
+        <v>53</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -14257,10 +14277,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>339009.0243061834</v>
+        <v>338949.7235384365</v>
       </c>
       <c r="R118" t="n">
-        <v>6571011.238422027</v>
+        <v>6571040.381812023</v>
       </c>
       <c r="S118" t="n">
         <v>5</v>
@@ -14313,6 +14333,21 @@
       </c>
       <c r="AG118" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ118" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK118" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO118" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT118" t="inlineStr"/>
       <c r="AW118" t="inlineStr">
@@ -14329,7 +14364,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111743527</v>
+        <v>111743515</v>
       </c>
       <c r="B119" t="n">
         <v>96348</v>
@@ -14369,10 +14404,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>338598.1684531783</v>
+        <v>339441.7613444271</v>
       </c>
       <c r="R119" t="n">
-        <v>6571109.585305012</v>
+        <v>6571017.506567059</v>
       </c>
       <c r="S119" t="n">
         <v>5</v>
@@ -14441,10 +14476,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111743554</v>
+        <v>111743517</v>
       </c>
       <c r="B120" t="n">
-        <v>88966</v>
+        <v>73634</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14453,25 +14488,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>5754</v>
+        <v>6426</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14481,10 +14516,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>339577.2032005055</v>
+        <v>339278.3213300391</v>
       </c>
       <c r="R120" t="n">
-        <v>6571127.007499221</v>
+        <v>6571107.378548244</v>
       </c>
       <c r="S120" t="n">
         <v>5</v>
@@ -14553,10 +14588,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111743517</v>
+        <v>111743516</v>
       </c>
       <c r="B121" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14565,25 +14600,25 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -14593,10 +14628,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>339278.3213300391</v>
+        <v>339415.5147437509</v>
       </c>
       <c r="R121" t="n">
-        <v>6571107.378548244</v>
+        <v>6571015.54325202</v>
       </c>
       <c r="S121" t="n">
         <v>5</v>
@@ -14665,10 +14700,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111743546</v>
+        <v>111743519</v>
       </c>
       <c r="B122" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14677,25 +14712,25 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -14705,10 +14740,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>339474.5644867857</v>
+        <v>339118.4126724883</v>
       </c>
       <c r="R122" t="n">
-        <v>6571113.931964876</v>
+        <v>6571062.424656671</v>
       </c>
       <c r="S122" t="n">
         <v>5</v>
@@ -14777,10 +14812,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111743526</v>
+        <v>111743551</v>
       </c>
       <c r="B123" t="n">
-        <v>90666</v>
+        <v>96348</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14789,25 +14824,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14817,10 +14852,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>338870.1217119552</v>
+        <v>339522.8608171764</v>
       </c>
       <c r="R123" t="n">
-        <v>6571086.774471543</v>
+        <v>6571091.407599592</v>
       </c>
       <c r="S123" t="n">
         <v>5</v>
@@ -14889,10 +14924,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111743524</v>
+        <v>111743526</v>
       </c>
       <c r="B124" t="n">
-        <v>94134</v>
+        <v>90666</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14901,25 +14936,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>53</v>
+        <v>4364</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14929,10 +14964,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>338949.7235384365</v>
+        <v>338870.1217119552</v>
       </c>
       <c r="R124" t="n">
-        <v>6571040.381812023</v>
+        <v>6571086.774471543</v>
       </c>
       <c r="S124" t="n">
         <v>5</v>
@@ -14985,21 +15020,6 @@
       </c>
       <c r="AG124" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ124" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK124" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO124" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT124" t="inlineStr"/>
       <c r="AW124" t="inlineStr">
@@ -15016,7 +15036,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111743516</v>
+        <v>111743546</v>
       </c>
       <c r="B125" t="n">
         <v>96348</v>
@@ -15056,10 +15076,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>339415.5147437509</v>
+        <v>339474.5644867857</v>
       </c>
       <c r="R125" t="n">
-        <v>6571015.54325202</v>
+        <v>6571113.931964876</v>
       </c>
       <c r="S125" t="n">
         <v>5</v>
@@ -15249,10 +15269,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111743520</v>
+        <v>111743527</v>
       </c>
       <c r="B127" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15261,43 +15281,38 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P127" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>339096.8530521042</v>
+        <v>338598.1684531783</v>
       </c>
       <c r="R127" t="n">
-        <v>6571013.66294401</v>
+        <v>6571109.585305012</v>
       </c>
       <c r="S127" t="n">
         <v>5</v>
@@ -15350,21 +15365,6 @@
       </c>
       <c r="AG127" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ127" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK127" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO127" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT127" t="inlineStr"/>
       <c r="AW127" t="inlineStr">

--- a/artfynd/A 16645-2023.xlsx
+++ b/artfynd/A 16645-2023.xlsx
@@ -13769,10 +13769,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111743554</v>
+        <v>111743524</v>
       </c>
       <c r="B114" t="n">
-        <v>88966</v>
+        <v>94134</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13785,21 +13785,21 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>5754</v>
+        <v>53</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13809,10 +13809,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>339577.2032005055</v>
+        <v>338949.7235384365</v>
       </c>
       <c r="R114" t="n">
-        <v>6571127.007499221</v>
+        <v>6571040.381812023</v>
       </c>
       <c r="S114" t="n">
         <v>5</v>
@@ -13865,6 +13865,21 @@
       </c>
       <c r="AG114" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ114" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK114" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO114" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT114" t="inlineStr"/>
       <c r="AW114" t="inlineStr">
@@ -14125,7 +14140,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111743521</v>
+        <v>111743549</v>
       </c>
       <c r="B117" t="n">
         <v>96348</v>
@@ -14159,16 +14174,24 @@
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>339070.1946752003</v>
+        <v>339495.029088294</v>
       </c>
       <c r="R117" t="n">
-        <v>6571001.989220584</v>
+        <v>6571076.196190646</v>
       </c>
       <c r="S117" t="n">
         <v>5</v>
@@ -14219,6 +14242,7 @@
       <c r="AE117" t="b">
         <v>0</v>
       </c>
+      <c r="AF117" t="inlineStr"/>
       <c r="AG117" t="b">
         <v>0</v>
       </c>
@@ -14237,10 +14261,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111743524</v>
+        <v>111743516</v>
       </c>
       <c r="B118" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14249,25 +14273,25 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -14277,10 +14301,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>338949.7235384365</v>
+        <v>339415.5147437509</v>
       </c>
       <c r="R118" t="n">
-        <v>6571040.381812023</v>
+        <v>6571015.54325202</v>
       </c>
       <c r="S118" t="n">
         <v>5</v>
@@ -14333,21 +14357,6 @@
       </c>
       <c r="AG118" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ118" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK118" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO118" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT118" t="inlineStr"/>
       <c r="AW118" t="inlineStr">
@@ -14364,7 +14373,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111743515</v>
+        <v>111743546</v>
       </c>
       <c r="B119" t="n">
         <v>96348</v>
@@ -14404,10 +14413,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>339441.7613444271</v>
+        <v>339474.5644867857</v>
       </c>
       <c r="R119" t="n">
-        <v>6571017.506567059</v>
+        <v>6571113.931964876</v>
       </c>
       <c r="S119" t="n">
         <v>5</v>
@@ -14476,10 +14485,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111743517</v>
+        <v>111743551</v>
       </c>
       <c r="B120" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14488,25 +14497,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14516,10 +14525,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>339278.3213300391</v>
+        <v>339522.8608171764</v>
       </c>
       <c r="R120" t="n">
-        <v>6571107.378548244</v>
+        <v>6571091.407599592</v>
       </c>
       <c r="S120" t="n">
         <v>5</v>
@@ -14588,10 +14597,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111743516</v>
+        <v>111743554</v>
       </c>
       <c r="B121" t="n">
-        <v>96348</v>
+        <v>88966</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14600,25 +14609,25 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>220787</v>
+        <v>5754</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -14628,10 +14637,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>339415.5147437509</v>
+        <v>339577.2032005055</v>
       </c>
       <c r="R121" t="n">
-        <v>6571015.54325202</v>
+        <v>6571127.007499221</v>
       </c>
       <c r="S121" t="n">
         <v>5</v>
@@ -14812,7 +14821,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111743551</v>
+        <v>111743515</v>
       </c>
       <c r="B123" t="n">
         <v>96348</v>
@@ -14852,10 +14861,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>339522.8608171764</v>
+        <v>339441.7613444271</v>
       </c>
       <c r="R123" t="n">
-        <v>6571091.407599592</v>
+        <v>6571017.506567059</v>
       </c>
       <c r="S123" t="n">
         <v>5</v>
@@ -14924,10 +14933,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111743526</v>
+        <v>111743517</v>
       </c>
       <c r="B124" t="n">
-        <v>90666</v>
+        <v>73634</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14940,21 +14949,21 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>4364</v>
+        <v>6426</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14964,10 +14973,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>338870.1217119552</v>
+        <v>339278.3213300391</v>
       </c>
       <c r="R124" t="n">
-        <v>6571086.774471543</v>
+        <v>6571107.378548244</v>
       </c>
       <c r="S124" t="n">
         <v>5</v>
@@ -15036,7 +15045,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111743546</v>
+        <v>111743527</v>
       </c>
       <c r="B125" t="n">
         <v>96348</v>
@@ -15076,10 +15085,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>339474.5644867857</v>
+        <v>338598.1684531783</v>
       </c>
       <c r="R125" t="n">
-        <v>6571113.931964876</v>
+        <v>6571109.585305012</v>
       </c>
       <c r="S125" t="n">
         <v>5</v>
@@ -15148,7 +15157,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111743549</v>
+        <v>111743521</v>
       </c>
       <c r="B126" t="n">
         <v>96348</v>
@@ -15182,24 +15191,16 @@
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L126" t="inlineStr"/>
-      <c r="N126" t="inlineStr"/>
       <c r="P126" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>339495.029088294</v>
+        <v>339070.1946752003</v>
       </c>
       <c r="R126" t="n">
-        <v>6571076.196190646</v>
+        <v>6571001.989220584</v>
       </c>
       <c r="S126" t="n">
         <v>5</v>
@@ -15250,7 +15251,6 @@
       <c r="AE126" t="b">
         <v>0</v>
       </c>
-      <c r="AF126" t="inlineStr"/>
       <c r="AG126" t="b">
         <v>0</v>
       </c>
@@ -15269,10 +15269,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111743527</v>
+        <v>111743526</v>
       </c>
       <c r="B127" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15281,25 +15281,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -15309,10 +15309,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>338598.1684531783</v>
+        <v>338870.1217119552</v>
       </c>
       <c r="R127" t="n">
-        <v>6571109.585305012</v>
+        <v>6571086.774471543</v>
       </c>
       <c r="S127" t="n">
         <v>5</v>

--- a/artfynd/A 16645-2023.xlsx
+++ b/artfynd/A 16645-2023.xlsx
@@ -13769,10 +13769,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111743524</v>
+        <v>111743519</v>
       </c>
       <c r="B114" t="n">
-        <v>94134</v>
+        <v>90666</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13781,25 +13781,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>53</v>
+        <v>4364</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13809,10 +13809,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>338949.7235384365</v>
+        <v>339118.4126724883</v>
       </c>
       <c r="R114" t="n">
-        <v>6571040.381812023</v>
+        <v>6571062.424656671</v>
       </c>
       <c r="S114" t="n">
         <v>5</v>
@@ -13865,21 +13865,6 @@
       </c>
       <c r="AG114" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ114" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK114" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO114" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT114" t="inlineStr"/>
       <c r="AW114" t="inlineStr">
@@ -13896,10 +13881,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111743520</v>
+        <v>111743546</v>
       </c>
       <c r="B115" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13908,43 +13893,38 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P115" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>339096.8530521042</v>
+        <v>339474.5644867857</v>
       </c>
       <c r="R115" t="n">
-        <v>6571013.66294401</v>
+        <v>6571113.931964876</v>
       </c>
       <c r="S115" t="n">
         <v>5</v>
@@ -13997,21 +13977,6 @@
       </c>
       <c r="AG115" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ115" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK115" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO115" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT115" t="inlineStr"/>
       <c r="AW115" t="inlineStr">
@@ -14028,10 +13993,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111743523</v>
+        <v>111743515</v>
       </c>
       <c r="B116" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -14040,25 +14005,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -14068,10 +14033,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>339009.0243061834</v>
+        <v>339441.7613444271</v>
       </c>
       <c r="R116" t="n">
-        <v>6571011.238422027</v>
+        <v>6571017.506567059</v>
       </c>
       <c r="S116" t="n">
         <v>5</v>
@@ -14261,10 +14226,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111743516</v>
+        <v>111743520</v>
       </c>
       <c r="B118" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14273,38 +14238,43 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P118" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>339415.5147437509</v>
+        <v>339096.8530521042</v>
       </c>
       <c r="R118" t="n">
-        <v>6571015.54325202</v>
+        <v>6571013.66294401</v>
       </c>
       <c r="S118" t="n">
         <v>5</v>
@@ -14357,6 +14327,21 @@
       </c>
       <c r="AG118" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ118" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK118" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO118" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT118" t="inlineStr"/>
       <c r="AW118" t="inlineStr">
@@ -14373,10 +14358,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111743546</v>
+        <v>111743526</v>
       </c>
       <c r="B119" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14385,25 +14370,25 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -14413,10 +14398,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>339474.5644867857</v>
+        <v>338870.1217119552</v>
       </c>
       <c r="R119" t="n">
-        <v>6571113.931964876</v>
+        <v>6571086.774471543</v>
       </c>
       <c r="S119" t="n">
         <v>5</v>
@@ -14485,10 +14470,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111743551</v>
+        <v>111743517</v>
       </c>
       <c r="B120" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14497,25 +14482,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14525,10 +14510,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>339522.8608171764</v>
+        <v>339278.3213300391</v>
       </c>
       <c r="R120" t="n">
-        <v>6571091.407599592</v>
+        <v>6571107.378548244</v>
       </c>
       <c r="S120" t="n">
         <v>5</v>
@@ -14597,10 +14582,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111743554</v>
+        <v>111743551</v>
       </c>
       <c r="B121" t="n">
-        <v>88966</v>
+        <v>96348</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14609,25 +14594,25 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>5754</v>
+        <v>220787</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -14637,10 +14622,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>339577.2032005055</v>
+        <v>339522.8608171764</v>
       </c>
       <c r="R121" t="n">
-        <v>6571127.007499221</v>
+        <v>6571091.407599592</v>
       </c>
       <c r="S121" t="n">
         <v>5</v>
@@ -14709,10 +14694,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111743519</v>
+        <v>111743521</v>
       </c>
       <c r="B122" t="n">
-        <v>90666</v>
+        <v>96348</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14721,25 +14706,25 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -14749,10 +14734,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>339118.4126724883</v>
+        <v>339070.1946752003</v>
       </c>
       <c r="R122" t="n">
-        <v>6571062.424656671</v>
+        <v>6571001.989220584</v>
       </c>
       <c r="S122" t="n">
         <v>5</v>
@@ -14821,10 +14806,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111743515</v>
+        <v>111743523</v>
       </c>
       <c r="B123" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14833,25 +14818,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14861,10 +14846,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>339441.7613444271</v>
+        <v>339009.0243061834</v>
       </c>
       <c r="R123" t="n">
-        <v>6571017.506567059</v>
+        <v>6571011.238422027</v>
       </c>
       <c r="S123" t="n">
         <v>5</v>
@@ -14933,10 +14918,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111743517</v>
+        <v>111743524</v>
       </c>
       <c r="B124" t="n">
-        <v>73634</v>
+        <v>94134</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14945,25 +14930,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>6426</v>
+        <v>53</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14973,10 +14958,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>339278.3213300391</v>
+        <v>338949.7235384365</v>
       </c>
       <c r="R124" t="n">
-        <v>6571107.378548244</v>
+        <v>6571040.381812023</v>
       </c>
       <c r="S124" t="n">
         <v>5</v>
@@ -15029,6 +15014,21 @@
       </c>
       <c r="AG124" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ124" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK124" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO124" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT124" t="inlineStr"/>
       <c r="AW124" t="inlineStr">
@@ -15045,10 +15045,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111743527</v>
+        <v>111743554</v>
       </c>
       <c r="B125" t="n">
-        <v>96348</v>
+        <v>88966</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -15057,25 +15057,25 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>220787</v>
+        <v>5754</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -15085,10 +15085,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>338598.1684531783</v>
+        <v>339577.2032005055</v>
       </c>
       <c r="R125" t="n">
-        <v>6571109.585305012</v>
+        <v>6571127.007499221</v>
       </c>
       <c r="S125" t="n">
         <v>5</v>
@@ -15157,7 +15157,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111743521</v>
+        <v>111743516</v>
       </c>
       <c r="B126" t="n">
         <v>96348</v>
@@ -15197,10 +15197,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>339070.1946752003</v>
+        <v>339415.5147437509</v>
       </c>
       <c r="R126" t="n">
-        <v>6571001.989220584</v>
+        <v>6571015.54325202</v>
       </c>
       <c r="S126" t="n">
         <v>5</v>
@@ -15269,10 +15269,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111743526</v>
+        <v>111743527</v>
       </c>
       <c r="B127" t="n">
-        <v>90666</v>
+        <v>96348</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15281,25 +15281,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -15309,10 +15309,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>338870.1217119552</v>
+        <v>338598.1684531783</v>
       </c>
       <c r="R127" t="n">
-        <v>6571086.774471543</v>
+        <v>6571109.585305012</v>
       </c>
       <c r="S127" t="n">
         <v>5</v>

--- a/artfynd/A 16645-2023.xlsx
+++ b/artfynd/A 16645-2023.xlsx
@@ -13769,10 +13769,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111743519</v>
+        <v>111743524</v>
       </c>
       <c r="B114" t="n">
-        <v>90666</v>
+        <v>94134</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13781,25 +13781,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>4364</v>
+        <v>53</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13809,10 +13809,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>339118.4126724883</v>
+        <v>338949.7235384365</v>
       </c>
       <c r="R114" t="n">
-        <v>6571062.424656671</v>
+        <v>6571040.381812023</v>
       </c>
       <c r="S114" t="n">
         <v>5</v>
@@ -13865,6 +13865,21 @@
       </c>
       <c r="AG114" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ114" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK114" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO114" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT114" t="inlineStr"/>
       <c r="AW114" t="inlineStr">
@@ -13881,10 +13896,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111743546</v>
+        <v>111743554</v>
       </c>
       <c r="B115" t="n">
-        <v>96348</v>
+        <v>88966</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13893,25 +13908,25 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>220787</v>
+        <v>5754</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13921,10 +13936,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>339474.5644867857</v>
+        <v>339577.2032005055</v>
       </c>
       <c r="R115" t="n">
-        <v>6571113.931964876</v>
+        <v>6571127.007499221</v>
       </c>
       <c r="S115" t="n">
         <v>5</v>
@@ -13993,10 +14008,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111743515</v>
+        <v>111743517</v>
       </c>
       <c r="B116" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -14005,25 +14020,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -14033,10 +14048,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>339441.7613444271</v>
+        <v>339278.3213300391</v>
       </c>
       <c r="R116" t="n">
-        <v>6571017.506567059</v>
+        <v>6571107.378548244</v>
       </c>
       <c r="S116" t="n">
         <v>5</v>
@@ -14105,10 +14120,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111743549</v>
+        <v>111743523</v>
       </c>
       <c r="B117" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14117,46 +14132,38 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L117" t="inlineStr"/>
-      <c r="N117" t="inlineStr"/>
       <c r="P117" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>339495.029088294</v>
+        <v>339009.0243061834</v>
       </c>
       <c r="R117" t="n">
-        <v>6571076.196190646</v>
+        <v>6571011.238422027</v>
       </c>
       <c r="S117" t="n">
         <v>5</v>
@@ -14207,7 +14214,6 @@
       <c r="AE117" t="b">
         <v>0</v>
       </c>
-      <c r="AF117" t="inlineStr"/>
       <c r="AG117" t="b">
         <v>0</v>
       </c>
@@ -14226,10 +14232,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111743520</v>
+        <v>111743549</v>
       </c>
       <c r="B118" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14238,43 +14244,46 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="M118" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>339096.8530521042</v>
+        <v>339495.029088294</v>
       </c>
       <c r="R118" t="n">
-        <v>6571013.66294401</v>
+        <v>6571076.196190646</v>
       </c>
       <c r="S118" t="n">
         <v>5</v>
@@ -14325,23 +14334,9 @@
       <c r="AE118" t="b">
         <v>0</v>
       </c>
+      <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ118" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK118" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO118" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT118" t="inlineStr"/>
       <c r="AW118" t="inlineStr">
@@ -14358,7 +14353,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111743526</v>
+        <v>111743519</v>
       </c>
       <c r="B119" t="n">
         <v>90666</v>
@@ -14398,10 +14393,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>338870.1217119552</v>
+        <v>339118.4126724883</v>
       </c>
       <c r="R119" t="n">
-        <v>6571086.774471543</v>
+        <v>6571062.424656671</v>
       </c>
       <c r="S119" t="n">
         <v>5</v>
@@ -14470,10 +14465,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111743517</v>
+        <v>111743551</v>
       </c>
       <c r="B120" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14482,25 +14477,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14510,10 +14505,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>339278.3213300391</v>
+        <v>339522.8608171764</v>
       </c>
       <c r="R120" t="n">
-        <v>6571107.378548244</v>
+        <v>6571091.407599592</v>
       </c>
       <c r="S120" t="n">
         <v>5</v>
@@ -14582,7 +14577,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111743551</v>
+        <v>111743516</v>
       </c>
       <c r="B121" t="n">
         <v>96348</v>
@@ -14622,10 +14617,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>339522.8608171764</v>
+        <v>339415.5147437509</v>
       </c>
       <c r="R121" t="n">
-        <v>6571091.407599592</v>
+        <v>6571015.54325202</v>
       </c>
       <c r="S121" t="n">
         <v>5</v>
@@ -14694,7 +14689,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111743521</v>
+        <v>111743546</v>
       </c>
       <c r="B122" t="n">
         <v>96348</v>
@@ -14734,10 +14729,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>339070.1946752003</v>
+        <v>339474.5644867857</v>
       </c>
       <c r="R122" t="n">
-        <v>6571001.989220584</v>
+        <v>6571113.931964876</v>
       </c>
       <c r="S122" t="n">
         <v>5</v>
@@ -14806,10 +14801,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111743523</v>
+        <v>111743527</v>
       </c>
       <c r="B123" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14818,25 +14813,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14846,10 +14841,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>339009.0243061834</v>
+        <v>338598.1684531783</v>
       </c>
       <c r="R123" t="n">
-        <v>6571011.238422027</v>
+        <v>6571109.585305012</v>
       </c>
       <c r="S123" t="n">
         <v>5</v>
@@ -14918,10 +14913,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111743524</v>
+        <v>111743515</v>
       </c>
       <c r="B124" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14930,25 +14925,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14958,10 +14953,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>338949.7235384365</v>
+        <v>339441.7613444271</v>
       </c>
       <c r="R124" t="n">
-        <v>6571040.381812023</v>
+        <v>6571017.506567059</v>
       </c>
       <c r="S124" t="n">
         <v>5</v>
@@ -15014,21 +15009,6 @@
       </c>
       <c r="AG124" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ124" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK124" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO124" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT124" t="inlineStr"/>
       <c r="AW124" t="inlineStr">
@@ -15045,10 +15025,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111743554</v>
+        <v>111743520</v>
       </c>
       <c r="B125" t="n">
-        <v>88966</v>
+        <v>56398</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -15061,34 +15041,39 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>5754</v>
+        <v>100109</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P125" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>339577.2032005055</v>
+        <v>339096.8530521042</v>
       </c>
       <c r="R125" t="n">
-        <v>6571127.007499221</v>
+        <v>6571013.66294401</v>
       </c>
       <c r="S125" t="n">
         <v>5</v>
@@ -15141,6 +15126,21 @@
       </c>
       <c r="AG125" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ125" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK125" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO125" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT125" t="inlineStr"/>
       <c r="AW125" t="inlineStr">
@@ -15157,10 +15157,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111743516</v>
+        <v>111743526</v>
       </c>
       <c r="B126" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -15169,25 +15169,25 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -15197,10 +15197,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>339415.5147437509</v>
+        <v>338870.1217119552</v>
       </c>
       <c r="R126" t="n">
-        <v>6571015.54325202</v>
+        <v>6571086.774471543</v>
       </c>
       <c r="S126" t="n">
         <v>5</v>
@@ -15269,7 +15269,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111743527</v>
+        <v>111743521</v>
       </c>
       <c r="B127" t="n">
         <v>96348</v>
@@ -15309,10 +15309,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>338598.1684531783</v>
+        <v>339070.1946752003</v>
       </c>
       <c r="R127" t="n">
-        <v>6571109.585305012</v>
+        <v>6571001.989220584</v>
       </c>
       <c r="S127" t="n">
         <v>5</v>

--- a/artfynd/A 16645-2023.xlsx
+++ b/artfynd/A 16645-2023.xlsx
@@ -13769,10 +13769,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111743524</v>
+        <v>111743517</v>
       </c>
       <c r="B114" t="n">
-        <v>94134</v>
+        <v>73634</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13781,25 +13781,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>53</v>
+        <v>6426</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13809,10 +13809,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>338949.7235384365</v>
+        <v>339278.3213300391</v>
       </c>
       <c r="R114" t="n">
-        <v>6571040.381812023</v>
+        <v>6571107.378548244</v>
       </c>
       <c r="S114" t="n">
         <v>5</v>
@@ -13865,21 +13865,6 @@
       </c>
       <c r="AG114" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ114" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK114" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO114" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT114" t="inlineStr"/>
       <c r="AW114" t="inlineStr">
@@ -13896,10 +13881,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111743554</v>
+        <v>111743526</v>
       </c>
       <c r="B115" t="n">
-        <v>88966</v>
+        <v>90666</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13908,25 +13893,25 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>5754</v>
+        <v>4364</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
@@ -13936,10 +13921,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>339577.2032005055</v>
+        <v>338870.1217119552</v>
       </c>
       <c r="R115" t="n">
-        <v>6571127.007499221</v>
+        <v>6571086.774471543</v>
       </c>
       <c r="S115" t="n">
         <v>5</v>
@@ -14008,10 +13993,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111743517</v>
+        <v>111743527</v>
       </c>
       <c r="B116" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -14020,25 +14005,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -14048,10 +14033,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>339278.3213300391</v>
+        <v>338598.1684531783</v>
       </c>
       <c r="R116" t="n">
-        <v>6571107.378548244</v>
+        <v>6571109.585305012</v>
       </c>
       <c r="S116" t="n">
         <v>5</v>
@@ -14120,10 +14105,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111743523</v>
+        <v>111743519</v>
       </c>
       <c r="B117" t="n">
-        <v>73634</v>
+        <v>90666</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14136,21 +14121,21 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>6426</v>
+        <v>4364</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14160,10 +14145,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>339009.0243061834</v>
+        <v>339118.4126724883</v>
       </c>
       <c r="R117" t="n">
-        <v>6571011.238422027</v>
+        <v>6571062.424656671</v>
       </c>
       <c r="S117" t="n">
         <v>5</v>
@@ -14353,10 +14338,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111743519</v>
+        <v>111743520</v>
       </c>
       <c r="B119" t="n">
-        <v>90666</v>
+        <v>56398</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14365,38 +14350,43 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>4364</v>
+        <v>100109</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P119" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>339118.4126724883</v>
+        <v>339096.8530521042</v>
       </c>
       <c r="R119" t="n">
-        <v>6571062.424656671</v>
+        <v>6571013.66294401</v>
       </c>
       <c r="S119" t="n">
         <v>5</v>
@@ -14449,6 +14439,21 @@
       </c>
       <c r="AG119" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ119" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK119" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO119" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT119" t="inlineStr"/>
       <c r="AW119" t="inlineStr">
@@ -14465,7 +14470,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111743551</v>
+        <v>111743546</v>
       </c>
       <c r="B120" t="n">
         <v>96348</v>
@@ -14505,10 +14510,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>339522.8608171764</v>
+        <v>339474.5644867857</v>
       </c>
       <c r="R120" t="n">
-        <v>6571091.407599592</v>
+        <v>6571113.931964876</v>
       </c>
       <c r="S120" t="n">
         <v>5</v>
@@ -14689,7 +14694,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111743546</v>
+        <v>111743551</v>
       </c>
       <c r="B122" t="n">
         <v>96348</v>
@@ -14729,10 +14734,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>339474.5644867857</v>
+        <v>339522.8608171764</v>
       </c>
       <c r="R122" t="n">
-        <v>6571113.931964876</v>
+        <v>6571091.407599592</v>
       </c>
       <c r="S122" t="n">
         <v>5</v>
@@ -14801,10 +14806,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111743527</v>
+        <v>111743554</v>
       </c>
       <c r="B123" t="n">
-        <v>96348</v>
+        <v>88966</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14813,25 +14818,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>220787</v>
+        <v>5754</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14841,10 +14846,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>338598.1684531783</v>
+        <v>339577.2032005055</v>
       </c>
       <c r="R123" t="n">
-        <v>6571109.585305012</v>
+        <v>6571127.007499221</v>
       </c>
       <c r="S123" t="n">
         <v>5</v>
@@ -14913,10 +14918,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111743515</v>
+        <v>111743524</v>
       </c>
       <c r="B124" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14925,25 +14930,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14953,10 +14958,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>339441.7613444271</v>
+        <v>338949.7235384365</v>
       </c>
       <c r="R124" t="n">
-        <v>6571017.506567059</v>
+        <v>6571040.381812023</v>
       </c>
       <c r="S124" t="n">
         <v>5</v>
@@ -15009,6 +15014,21 @@
       </c>
       <c r="AG124" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ124" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK124" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO124" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT124" t="inlineStr"/>
       <c r="AW124" t="inlineStr">
@@ -15025,10 +15045,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111743520</v>
+        <v>111743521</v>
       </c>
       <c r="B125" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -15037,43 +15057,38 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P125" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>339096.8530521042</v>
+        <v>339070.1946752003</v>
       </c>
       <c r="R125" t="n">
-        <v>6571013.66294401</v>
+        <v>6571001.989220584</v>
       </c>
       <c r="S125" t="n">
         <v>5</v>
@@ -15126,21 +15141,6 @@
       </c>
       <c r="AG125" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ125" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK125" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO125" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT125" t="inlineStr"/>
       <c r="AW125" t="inlineStr">
@@ -15157,10 +15157,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111743526</v>
+        <v>111743523</v>
       </c>
       <c r="B126" t="n">
-        <v>90666</v>
+        <v>73634</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -15173,21 +15173,21 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>4364</v>
+        <v>6426</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -15197,10 +15197,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>338870.1217119552</v>
+        <v>339009.0243061834</v>
       </c>
       <c r="R126" t="n">
-        <v>6571086.774471543</v>
+        <v>6571011.238422027</v>
       </c>
       <c r="S126" t="n">
         <v>5</v>
@@ -15269,7 +15269,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111743521</v>
+        <v>111743515</v>
       </c>
       <c r="B127" t="n">
         <v>96348</v>
@@ -15309,10 +15309,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>339070.1946752003</v>
+        <v>339441.7613444271</v>
       </c>
       <c r="R127" t="n">
-        <v>6571001.989220584</v>
+        <v>6571017.506567059</v>
       </c>
       <c r="S127" t="n">
         <v>5</v>

--- a/artfynd/A 16645-2023.xlsx
+++ b/artfynd/A 16645-2023.xlsx
@@ -13769,10 +13769,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111743517</v>
+        <v>111743515</v>
       </c>
       <c r="B114" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13781,25 +13781,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13809,10 +13809,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>339278.3213300391</v>
+        <v>339441.7613444271</v>
       </c>
       <c r="R114" t="n">
-        <v>6571107.378548244</v>
+        <v>6571017.506567059</v>
       </c>
       <c r="S114" t="n">
         <v>5</v>
@@ -13993,10 +13993,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111743527</v>
+        <v>111743520</v>
       </c>
       <c r="B116" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -14005,38 +14005,43 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P116" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>338598.1684531783</v>
+        <v>339096.8530521042</v>
       </c>
       <c r="R116" t="n">
-        <v>6571109.585305012</v>
+        <v>6571013.66294401</v>
       </c>
       <c r="S116" t="n">
         <v>5</v>
@@ -14089,6 +14094,21 @@
       </c>
       <c r="AG116" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ116" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK116" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO116" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT116" t="inlineStr"/>
       <c r="AW116" t="inlineStr">
@@ -14105,10 +14125,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111743519</v>
+        <v>111743554</v>
       </c>
       <c r="B117" t="n">
-        <v>90666</v>
+        <v>88966</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14117,25 +14137,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>4364</v>
+        <v>5754</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14145,10 +14165,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>339118.4126724883</v>
+        <v>339577.2032005055</v>
       </c>
       <c r="R117" t="n">
-        <v>6571062.424656671</v>
+        <v>6571127.007499221</v>
       </c>
       <c r="S117" t="n">
         <v>5</v>
@@ -14217,7 +14237,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111743549</v>
+        <v>111743521</v>
       </c>
       <c r="B118" t="n">
         <v>96348</v>
@@ -14251,24 +14271,16 @@
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L118" t="inlineStr"/>
-      <c r="N118" t="inlineStr"/>
       <c r="P118" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>339495.029088294</v>
+        <v>339070.1946752003</v>
       </c>
       <c r="R118" t="n">
-        <v>6571076.196190646</v>
+        <v>6571001.989220584</v>
       </c>
       <c r="S118" t="n">
         <v>5</v>
@@ -14319,7 +14331,6 @@
       <c r="AE118" t="b">
         <v>0</v>
       </c>
-      <c r="AF118" t="inlineStr"/>
       <c r="AG118" t="b">
         <v>0</v>
       </c>
@@ -14338,10 +14349,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111743520</v>
+        <v>111743546</v>
       </c>
       <c r="B119" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14350,43 +14361,38 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="M119" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P119" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>339096.8530521042</v>
+        <v>339474.5644867857</v>
       </c>
       <c r="R119" t="n">
-        <v>6571013.66294401</v>
+        <v>6571113.931964876</v>
       </c>
       <c r="S119" t="n">
         <v>5</v>
@@ -14439,21 +14445,6 @@
       </c>
       <c r="AG119" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ119" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK119" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO119" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT119" t="inlineStr"/>
       <c r="AW119" t="inlineStr">
@@ -14470,7 +14461,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111743546</v>
+        <v>111743551</v>
       </c>
       <c r="B120" t="n">
         <v>96348</v>
@@ -14510,10 +14501,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>339474.5644867857</v>
+        <v>339522.8608171764</v>
       </c>
       <c r="R120" t="n">
-        <v>6571113.931964876</v>
+        <v>6571091.407599592</v>
       </c>
       <c r="S120" t="n">
         <v>5</v>
@@ -14582,7 +14573,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111743516</v>
+        <v>111743527</v>
       </c>
       <c r="B121" t="n">
         <v>96348</v>
@@ -14622,10 +14613,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>339415.5147437509</v>
+        <v>338598.1684531783</v>
       </c>
       <c r="R121" t="n">
-        <v>6571015.54325202</v>
+        <v>6571109.585305012</v>
       </c>
       <c r="S121" t="n">
         <v>5</v>
@@ -14694,10 +14685,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111743551</v>
+        <v>111743517</v>
       </c>
       <c r="B122" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14706,25 +14697,25 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -14734,10 +14725,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>339522.8608171764</v>
+        <v>339278.3213300391</v>
       </c>
       <c r="R122" t="n">
-        <v>6571091.407599592</v>
+        <v>6571107.378548244</v>
       </c>
       <c r="S122" t="n">
         <v>5</v>
@@ -14806,10 +14797,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111743554</v>
+        <v>111743519</v>
       </c>
       <c r="B123" t="n">
-        <v>88966</v>
+        <v>90666</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14818,25 +14809,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>5754</v>
+        <v>4364</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14846,10 +14837,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>339577.2032005055</v>
+        <v>339118.4126724883</v>
       </c>
       <c r="R123" t="n">
-        <v>6571127.007499221</v>
+        <v>6571062.424656671</v>
       </c>
       <c r="S123" t="n">
         <v>5</v>
@@ -14918,10 +14909,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111743524</v>
+        <v>111743523</v>
       </c>
       <c r="B124" t="n">
-        <v>94134</v>
+        <v>73634</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14930,25 +14921,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>53</v>
+        <v>6426</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14958,10 +14949,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>338949.7235384365</v>
+        <v>339009.0243061834</v>
       </c>
       <c r="R124" t="n">
-        <v>6571040.381812023</v>
+        <v>6571011.238422027</v>
       </c>
       <c r="S124" t="n">
         <v>5</v>
@@ -15014,21 +15005,6 @@
       </c>
       <c r="AG124" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ124" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK124" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO124" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT124" t="inlineStr"/>
       <c r="AW124" t="inlineStr">
@@ -15045,7 +15021,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111743521</v>
+        <v>111743549</v>
       </c>
       <c r="B125" t="n">
         <v>96348</v>
@@ -15079,16 +15055,24 @@
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>339070.1946752003</v>
+        <v>339495.029088294</v>
       </c>
       <c r="R125" t="n">
-        <v>6571001.989220584</v>
+        <v>6571076.196190646</v>
       </c>
       <c r="S125" t="n">
         <v>5</v>
@@ -15139,6 +15123,7 @@
       <c r="AE125" t="b">
         <v>0</v>
       </c>
+      <c r="AF125" t="inlineStr"/>
       <c r="AG125" t="b">
         <v>0</v>
       </c>
@@ -15157,10 +15142,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111743523</v>
+        <v>111743516</v>
       </c>
       <c r="B126" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -15169,25 +15154,25 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -15197,10 +15182,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>339009.0243061834</v>
+        <v>339415.5147437509</v>
       </c>
       <c r="R126" t="n">
-        <v>6571011.238422027</v>
+        <v>6571015.54325202</v>
       </c>
       <c r="S126" t="n">
         <v>5</v>
@@ -15269,10 +15254,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111743515</v>
+        <v>111743524</v>
       </c>
       <c r="B127" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15281,25 +15266,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -15309,10 +15294,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>339441.7613444271</v>
+        <v>338949.7235384365</v>
       </c>
       <c r="R127" t="n">
-        <v>6571017.506567059</v>
+        <v>6571040.381812023</v>
       </c>
       <c r="S127" t="n">
         <v>5</v>
@@ -15365,6 +15350,21 @@
       </c>
       <c r="AG127" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ127" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK127" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO127" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT127" t="inlineStr"/>
       <c r="AW127" t="inlineStr">

--- a/artfynd/A 16645-2023.xlsx
+++ b/artfynd/A 16645-2023.xlsx
@@ -13769,7 +13769,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111743515</v>
+        <v>111743551</v>
       </c>
       <c r="B114" t="n">
         <v>96348</v>
@@ -13809,10 +13809,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>339441.7613444271</v>
+        <v>339522.8608171764</v>
       </c>
       <c r="R114" t="n">
-        <v>6571017.506567059</v>
+        <v>6571091.407599592</v>
       </c>
       <c r="S114" t="n">
         <v>5</v>
@@ -13881,7 +13881,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111743526</v>
+        <v>111743519</v>
       </c>
       <c r="B115" t="n">
         <v>90666</v>
@@ -13921,10 +13921,10 @@
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>338870.1217119552</v>
+        <v>339118.4126724883</v>
       </c>
       <c r="R115" t="n">
-        <v>6571086.774471543</v>
+        <v>6571062.424656671</v>
       </c>
       <c r="S115" t="n">
         <v>5</v>
@@ -13993,10 +13993,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111743520</v>
+        <v>111743527</v>
       </c>
       <c r="B116" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -14005,43 +14005,38 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="M116" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P116" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>339096.8530521042</v>
+        <v>338598.1684531783</v>
       </c>
       <c r="R116" t="n">
-        <v>6571013.66294401</v>
+        <v>6571109.585305012</v>
       </c>
       <c r="S116" t="n">
         <v>5</v>
@@ -14094,21 +14089,6 @@
       </c>
       <c r="AG116" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ116" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK116" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO116" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT116" t="inlineStr"/>
       <c r="AW116" t="inlineStr">
@@ -14125,10 +14105,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111743554</v>
+        <v>111743521</v>
       </c>
       <c r="B117" t="n">
-        <v>88966</v>
+        <v>96348</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14137,25 +14117,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>5754</v>
+        <v>220787</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14165,10 +14145,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>339577.2032005055</v>
+        <v>339070.1946752003</v>
       </c>
       <c r="R117" t="n">
-        <v>6571127.007499221</v>
+        <v>6571001.989220584</v>
       </c>
       <c r="S117" t="n">
         <v>5</v>
@@ -14237,7 +14217,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111743521</v>
+        <v>111743546</v>
       </c>
       <c r="B118" t="n">
         <v>96348</v>
@@ -14277,10 +14257,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>339070.1946752003</v>
+        <v>339474.5644867857</v>
       </c>
       <c r="R118" t="n">
-        <v>6571001.989220584</v>
+        <v>6571113.931964876</v>
       </c>
       <c r="S118" t="n">
         <v>5</v>
@@ -14349,10 +14329,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111743546</v>
+        <v>111743524</v>
       </c>
       <c r="B119" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14361,25 +14341,25 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -14389,10 +14369,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>339474.5644867857</v>
+        <v>338949.7235384365</v>
       </c>
       <c r="R119" t="n">
-        <v>6571113.931964876</v>
+        <v>6571040.381812023</v>
       </c>
       <c r="S119" t="n">
         <v>5</v>
@@ -14445,6 +14425,21 @@
       </c>
       <c r="AG119" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ119" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK119" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO119" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT119" t="inlineStr"/>
       <c r="AW119" t="inlineStr">
@@ -14461,10 +14456,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111743551</v>
+        <v>111743526</v>
       </c>
       <c r="B120" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14473,25 +14468,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14501,10 +14496,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>339522.8608171764</v>
+        <v>338870.1217119552</v>
       </c>
       <c r="R120" t="n">
-        <v>6571091.407599592</v>
+        <v>6571086.774471543</v>
       </c>
       <c r="S120" t="n">
         <v>5</v>
@@ -14573,7 +14568,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111743527</v>
+        <v>111743549</v>
       </c>
       <c r="B121" t="n">
         <v>96348</v>
@@ -14607,16 +14602,24 @@
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>338598.1684531783</v>
+        <v>339495.029088294</v>
       </c>
       <c r="R121" t="n">
-        <v>6571109.585305012</v>
+        <v>6571076.196190646</v>
       </c>
       <c r="S121" t="n">
         <v>5</v>
@@ -14667,6 +14670,7 @@
       <c r="AE121" t="b">
         <v>0</v>
       </c>
+      <c r="AF121" t="inlineStr"/>
       <c r="AG121" t="b">
         <v>0</v>
       </c>
@@ -14685,10 +14689,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111743517</v>
+        <v>111743515</v>
       </c>
       <c r="B122" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14697,25 +14701,25 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -14725,10 +14729,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>339278.3213300391</v>
+        <v>339441.7613444271</v>
       </c>
       <c r="R122" t="n">
-        <v>6571107.378548244</v>
+        <v>6571017.506567059</v>
       </c>
       <c r="S122" t="n">
         <v>5</v>
@@ -14797,10 +14801,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111743519</v>
+        <v>111743554</v>
       </c>
       <c r="B123" t="n">
-        <v>90666</v>
+        <v>88966</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14809,25 +14813,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>4364</v>
+        <v>5754</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14837,10 +14841,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>339118.4126724883</v>
+        <v>339577.2032005055</v>
       </c>
       <c r="R123" t="n">
-        <v>6571062.424656671</v>
+        <v>6571127.007499221</v>
       </c>
       <c r="S123" t="n">
         <v>5</v>
@@ -15021,10 +15025,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111743549</v>
+        <v>111743520</v>
       </c>
       <c r="B125" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -15033,46 +15037,43 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L125" t="inlineStr"/>
-      <c r="N125" t="inlineStr"/>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P125" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>339495.029088294</v>
+        <v>339096.8530521042</v>
       </c>
       <c r="R125" t="n">
-        <v>6571076.196190646</v>
+        <v>6571013.66294401</v>
       </c>
       <c r="S125" t="n">
         <v>5</v>
@@ -15123,9 +15124,23 @@
       <c r="AE125" t="b">
         <v>0</v>
       </c>
-      <c r="AF125" t="inlineStr"/>
       <c r="AG125" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ125" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK125" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO125" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT125" t="inlineStr"/>
       <c r="AW125" t="inlineStr">
@@ -15254,10 +15269,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111743524</v>
+        <v>111743517</v>
       </c>
       <c r="B127" t="n">
-        <v>94134</v>
+        <v>73634</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15266,25 +15281,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>53</v>
+        <v>6426</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -15294,10 +15309,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>338949.7235384365</v>
+        <v>339278.3213300391</v>
       </c>
       <c r="R127" t="n">
-        <v>6571040.381812023</v>
+        <v>6571107.378548244</v>
       </c>
       <c r="S127" t="n">
         <v>5</v>
@@ -15350,21 +15365,6 @@
       </c>
       <c r="AG127" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ127" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK127" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO127" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT127" t="inlineStr"/>
       <c r="AW127" t="inlineStr">

--- a/artfynd/A 16645-2023.xlsx
+++ b/artfynd/A 16645-2023.xlsx
@@ -13769,7 +13769,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111743551</v>
+        <v>111743546</v>
       </c>
       <c r="B114" t="n">
         <v>96348</v>
@@ -13809,10 +13809,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>339522.8608171764</v>
+        <v>339474.5644867857</v>
       </c>
       <c r="R114" t="n">
-        <v>6571091.407599592</v>
+        <v>6571113.931964876</v>
       </c>
       <c r="S114" t="n">
         <v>5</v>
@@ -13881,10 +13881,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111743519</v>
+        <v>111743520</v>
       </c>
       <c r="B115" t="n">
-        <v>90666</v>
+        <v>56398</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13893,38 +13893,43 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>4364</v>
+        <v>100109</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P115" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>339118.4126724883</v>
+        <v>339096.8530521042</v>
       </c>
       <c r="R115" t="n">
-        <v>6571062.424656671</v>
+        <v>6571013.66294401</v>
       </c>
       <c r="S115" t="n">
         <v>5</v>
@@ -13977,6 +13982,21 @@
       </c>
       <c r="AG115" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ115" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK115" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO115" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT115" t="inlineStr"/>
       <c r="AW115" t="inlineStr">
@@ -14105,10 +14125,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111743521</v>
+        <v>111743519</v>
       </c>
       <c r="B117" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14117,25 +14137,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14145,10 +14165,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>339070.1946752003</v>
+        <v>339118.4126724883</v>
       </c>
       <c r="R117" t="n">
-        <v>6571001.989220584</v>
+        <v>6571062.424656671</v>
       </c>
       <c r="S117" t="n">
         <v>5</v>
@@ -14217,10 +14237,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111743546</v>
+        <v>111743526</v>
       </c>
       <c r="B118" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14229,25 +14249,25 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E118" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -14257,10 +14277,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>339474.5644867857</v>
+        <v>338870.1217119552</v>
       </c>
       <c r="R118" t="n">
-        <v>6571113.931964876</v>
+        <v>6571086.774471543</v>
       </c>
       <c r="S118" t="n">
         <v>5</v>
@@ -14329,10 +14349,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111743524</v>
+        <v>111743551</v>
       </c>
       <c r="B119" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14341,25 +14361,25 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -14369,10 +14389,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>338949.7235384365</v>
+        <v>339522.8608171764</v>
       </c>
       <c r="R119" t="n">
-        <v>6571040.381812023</v>
+        <v>6571091.407599592</v>
       </c>
       <c r="S119" t="n">
         <v>5</v>
@@ -14425,21 +14445,6 @@
       </c>
       <c r="AG119" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ119" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK119" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO119" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT119" t="inlineStr"/>
       <c r="AW119" t="inlineStr">
@@ -14456,10 +14461,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111743526</v>
+        <v>111743554</v>
       </c>
       <c r="B120" t="n">
-        <v>90666</v>
+        <v>88966</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14468,25 +14473,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>4364</v>
+        <v>5754</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14496,10 +14501,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>338870.1217119552</v>
+        <v>339577.2032005055</v>
       </c>
       <c r="R120" t="n">
-        <v>6571086.774471543</v>
+        <v>6571127.007499221</v>
       </c>
       <c r="S120" t="n">
         <v>5</v>
@@ -14568,10 +14573,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111743549</v>
+        <v>111743523</v>
       </c>
       <c r="B121" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14580,46 +14585,38 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L121" t="inlineStr"/>
-      <c r="N121" t="inlineStr"/>
       <c r="P121" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>339495.029088294</v>
+        <v>339009.0243061834</v>
       </c>
       <c r="R121" t="n">
-        <v>6571076.196190646</v>
+        <v>6571011.238422027</v>
       </c>
       <c r="S121" t="n">
         <v>5</v>
@@ -14670,7 +14667,6 @@
       <c r="AE121" t="b">
         <v>0</v>
       </c>
-      <c r="AF121" t="inlineStr"/>
       <c r="AG121" t="b">
         <v>0</v>
       </c>
@@ -14689,7 +14685,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111743515</v>
+        <v>111743549</v>
       </c>
       <c r="B122" t="n">
         <v>96348</v>
@@ -14723,16 +14719,24 @@
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>339441.7613444271</v>
+        <v>339495.029088294</v>
       </c>
       <c r="R122" t="n">
-        <v>6571017.506567059</v>
+        <v>6571076.196190646</v>
       </c>
       <c r="S122" t="n">
         <v>5</v>
@@ -14783,6 +14787,7 @@
       <c r="AE122" t="b">
         <v>0</v>
       </c>
+      <c r="AF122" t="inlineStr"/>
       <c r="AG122" t="b">
         <v>0</v>
       </c>
@@ -14801,10 +14806,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111743554</v>
+        <v>111743517</v>
       </c>
       <c r="B123" t="n">
-        <v>88966</v>
+        <v>73634</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14813,25 +14818,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>5754</v>
+        <v>6426</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14841,10 +14846,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>339577.2032005055</v>
+        <v>339278.3213300391</v>
       </c>
       <c r="R123" t="n">
-        <v>6571127.007499221</v>
+        <v>6571107.378548244</v>
       </c>
       <c r="S123" t="n">
         <v>5</v>
@@ -14913,10 +14918,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111743523</v>
+        <v>111743521</v>
       </c>
       <c r="B124" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14925,25 +14930,25 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
@@ -14953,10 +14958,10 @@
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>339009.0243061834</v>
+        <v>339070.1946752003</v>
       </c>
       <c r="R124" t="n">
-        <v>6571011.238422027</v>
+        <v>6571001.989220584</v>
       </c>
       <c r="S124" t="n">
         <v>5</v>
@@ -15025,10 +15030,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111743520</v>
+        <v>111743515</v>
       </c>
       <c r="B125" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -15037,43 +15042,38 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="M125" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P125" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>339096.8530521042</v>
+        <v>339441.7613444271</v>
       </c>
       <c r="R125" t="n">
-        <v>6571013.66294401</v>
+        <v>6571017.506567059</v>
       </c>
       <c r="S125" t="n">
         <v>5</v>
@@ -15126,21 +15126,6 @@
       </c>
       <c r="AG125" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ125" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK125" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO125" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT125" t="inlineStr"/>
       <c r="AW125" t="inlineStr">
@@ -15157,10 +15142,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111743516</v>
+        <v>111743524</v>
       </c>
       <c r="B126" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -15169,25 +15154,25 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -15197,10 +15182,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>339415.5147437509</v>
+        <v>338949.7235384365</v>
       </c>
       <c r="R126" t="n">
-        <v>6571015.54325202</v>
+        <v>6571040.381812023</v>
       </c>
       <c r="S126" t="n">
         <v>5</v>
@@ -15253,6 +15238,21 @@
       </c>
       <c r="AG126" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ126" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK126" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO126" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT126" t="inlineStr"/>
       <c r="AW126" t="inlineStr">
@@ -15269,10 +15269,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111743517</v>
+        <v>111743516</v>
       </c>
       <c r="B127" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15281,25 +15281,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -15309,10 +15309,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>339278.3213300391</v>
+        <v>339415.5147437509</v>
       </c>
       <c r="R127" t="n">
-        <v>6571107.378548244</v>
+        <v>6571015.54325202</v>
       </c>
       <c r="S127" t="n">
         <v>5</v>

--- a/artfynd/A 16645-2023.xlsx
+++ b/artfynd/A 16645-2023.xlsx
@@ -13769,10 +13769,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111743546</v>
+        <v>111743526</v>
       </c>
       <c r="B114" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13781,25 +13781,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13809,10 +13809,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>339474.5644867857</v>
+        <v>338870.1217119552</v>
       </c>
       <c r="R114" t="n">
-        <v>6571113.931964876</v>
+        <v>6571086.774471543</v>
       </c>
       <c r="S114" t="n">
         <v>5</v>
@@ -13881,10 +13881,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111743520</v>
+        <v>111743546</v>
       </c>
       <c r="B115" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13893,43 +13893,38 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="M115" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P115" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>339096.8530521042</v>
+        <v>339474.5644867857</v>
       </c>
       <c r="R115" t="n">
-        <v>6571013.66294401</v>
+        <v>6571113.931964876</v>
       </c>
       <c r="S115" t="n">
         <v>5</v>
@@ -13982,21 +13977,6 @@
       </c>
       <c r="AG115" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ115" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK115" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO115" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT115" t="inlineStr"/>
       <c r="AW115" t="inlineStr">
@@ -14013,7 +13993,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111743527</v>
+        <v>111743551</v>
       </c>
       <c r="B116" t="n">
         <v>96348</v>
@@ -14053,10 +14033,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>338598.1684531783</v>
+        <v>339522.8608171764</v>
       </c>
       <c r="R116" t="n">
-        <v>6571109.585305012</v>
+        <v>6571091.407599592</v>
       </c>
       <c r="S116" t="n">
         <v>5</v>
@@ -14125,10 +14105,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111743519</v>
+        <v>111743520</v>
       </c>
       <c r="B117" t="n">
-        <v>90666</v>
+        <v>56398</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14137,38 +14117,43 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>4364</v>
+        <v>100109</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P117" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>339118.4126724883</v>
+        <v>339096.8530521042</v>
       </c>
       <c r="R117" t="n">
-        <v>6571062.424656671</v>
+        <v>6571013.66294401</v>
       </c>
       <c r="S117" t="n">
         <v>5</v>
@@ -14221,6 +14206,21 @@
       </c>
       <c r="AG117" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ117" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK117" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO117" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT117" t="inlineStr"/>
       <c r="AW117" t="inlineStr">
@@ -14237,7 +14237,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111743526</v>
+        <v>111743519</v>
       </c>
       <c r="B118" t="n">
         <v>90666</v>
@@ -14277,10 +14277,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>338870.1217119552</v>
+        <v>339118.4126724883</v>
       </c>
       <c r="R118" t="n">
-        <v>6571086.774471543</v>
+        <v>6571062.424656671</v>
       </c>
       <c r="S118" t="n">
         <v>5</v>
@@ -14349,7 +14349,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111743551</v>
+        <v>111743521</v>
       </c>
       <c r="B119" t="n">
         <v>96348</v>
@@ -14389,10 +14389,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>339522.8608171764</v>
+        <v>339070.1946752003</v>
       </c>
       <c r="R119" t="n">
-        <v>6571091.407599592</v>
+        <v>6571001.989220584</v>
       </c>
       <c r="S119" t="n">
         <v>5</v>
@@ -14461,10 +14461,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111743554</v>
+        <v>111743524</v>
       </c>
       <c r="B120" t="n">
-        <v>88966</v>
+        <v>94134</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14477,21 +14477,21 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>5754</v>
+        <v>53</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14501,10 +14501,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>339577.2032005055</v>
+        <v>338949.7235384365</v>
       </c>
       <c r="R120" t="n">
-        <v>6571127.007499221</v>
+        <v>6571040.381812023</v>
       </c>
       <c r="S120" t="n">
         <v>5</v>
@@ -14557,6 +14557,21 @@
       </c>
       <c r="AG120" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ120" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK120" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO120" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT120" t="inlineStr"/>
       <c r="AW120" t="inlineStr">
@@ -14573,10 +14588,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111743523</v>
+        <v>111743554</v>
       </c>
       <c r="B121" t="n">
-        <v>73634</v>
+        <v>88966</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14585,25 +14600,25 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>6426</v>
+        <v>5754</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -14613,10 +14628,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>339009.0243061834</v>
+        <v>339577.2032005055</v>
       </c>
       <c r="R121" t="n">
-        <v>6571011.238422027</v>
+        <v>6571127.007499221</v>
       </c>
       <c r="S121" t="n">
         <v>5</v>
@@ -14685,10 +14700,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111743549</v>
+        <v>111743523</v>
       </c>
       <c r="B122" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14697,46 +14712,38 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L122" t="inlineStr"/>
-      <c r="N122" t="inlineStr"/>
       <c r="P122" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>339495.029088294</v>
+        <v>339009.0243061834</v>
       </c>
       <c r="R122" t="n">
-        <v>6571076.196190646</v>
+        <v>6571011.238422027</v>
       </c>
       <c r="S122" t="n">
         <v>5</v>
@@ -14787,7 +14794,6 @@
       <c r="AE122" t="b">
         <v>0</v>
       </c>
-      <c r="AF122" t="inlineStr"/>
       <c r="AG122" t="b">
         <v>0</v>
       </c>
@@ -14918,7 +14924,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111743521</v>
+        <v>111743549</v>
       </c>
       <c r="B124" t="n">
         <v>96348</v>
@@ -14952,16 +14958,24 @@
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
       <c r="P124" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>339070.1946752003</v>
+        <v>339495.029088294</v>
       </c>
       <c r="R124" t="n">
-        <v>6571001.989220584</v>
+        <v>6571076.196190646</v>
       </c>
       <c r="S124" t="n">
         <v>5</v>
@@ -15012,6 +15026,7 @@
       <c r="AE124" t="b">
         <v>0</v>
       </c>
+      <c r="AF124" t="inlineStr"/>
       <c r="AG124" t="b">
         <v>0</v>
       </c>
@@ -15030,7 +15045,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111743515</v>
+        <v>111743527</v>
       </c>
       <c r="B125" t="n">
         <v>96348</v>
@@ -15070,10 +15085,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>339441.7613444271</v>
+        <v>338598.1684531783</v>
       </c>
       <c r="R125" t="n">
-        <v>6571017.506567059</v>
+        <v>6571109.585305012</v>
       </c>
       <c r="S125" t="n">
         <v>5</v>
@@ -15142,10 +15157,10 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111743524</v>
+        <v>111743516</v>
       </c>
       <c r="B126" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C126" t="inlineStr">
         <is>
@@ -15154,25 +15169,25 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E126" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I126" t="inlineStr"/>
@@ -15182,10 +15197,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>338949.7235384365</v>
+        <v>339415.5147437509</v>
       </c>
       <c r="R126" t="n">
-        <v>6571040.381812023</v>
+        <v>6571015.54325202</v>
       </c>
       <c r="S126" t="n">
         <v>5</v>
@@ -15238,21 +15253,6 @@
       </c>
       <c r="AG126" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ126" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK126" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO126" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT126" t="inlineStr"/>
       <c r="AW126" t="inlineStr">
@@ -15269,7 +15269,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111743516</v>
+        <v>111743515</v>
       </c>
       <c r="B127" t="n">
         <v>96348</v>
@@ -15309,10 +15309,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>339415.5147437509</v>
+        <v>339441.7613444271</v>
       </c>
       <c r="R127" t="n">
-        <v>6571015.54325202</v>
+        <v>6571017.506567059</v>
       </c>
       <c r="S127" t="n">
         <v>5</v>

--- a/artfynd/A 16645-2023.xlsx
+++ b/artfynd/A 16645-2023.xlsx
@@ -13697,10 +13697,10 @@
         </is>
       </c>
       <c r="Q113" t="n">
-        <v>339395.1991094725</v>
+        <v>339395</v>
       </c>
       <c r="R113" t="n">
-        <v>6570971.848192735</v>
+        <v>6570972</v>
       </c>
       <c r="S113" t="n">
         <v>10</v>
@@ -13769,10 +13769,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111743526</v>
+        <v>111743554</v>
       </c>
       <c r="B114" t="n">
-        <v>90666</v>
+        <v>88966</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13781,25 +13781,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>4364</v>
+        <v>5754</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13809,10 +13809,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>338870.1217119552</v>
+        <v>339577</v>
       </c>
       <c r="R114" t="n">
-        <v>6571086.774471543</v>
+        <v>6571127</v>
       </c>
       <c r="S114" t="n">
         <v>5</v>
@@ -13842,19 +13842,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z114" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA114" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB114" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD114" t="b">
@@ -13881,7 +13871,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111743546</v>
+        <v>111743549</v>
       </c>
       <c r="B115" t="n">
         <v>96348</v>
@@ -13915,16 +13905,24 @@
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>339474.5644867857</v>
+        <v>339495</v>
       </c>
       <c r="R115" t="n">
-        <v>6571113.931964876</v>
+        <v>6571076</v>
       </c>
       <c r="S115" t="n">
         <v>5</v>
@@ -13954,27 +13952,18 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z115" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA115" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="AB115" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD115" t="b">
         <v>0</v>
       </c>
       <c r="AE115" t="b">
         <v>0</v>
       </c>
+      <c r="AF115" t="inlineStr"/>
       <c r="AG115" t="b">
         <v>0</v>
       </c>
@@ -14033,10 +14022,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>339522.8608171764</v>
+        <v>339523</v>
       </c>
       <c r="R116" t="n">
-        <v>6571091.407599592</v>
+        <v>6571091</v>
       </c>
       <c r="S116" t="n">
         <v>5</v>
@@ -14066,19 +14055,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z116" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA116" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB116" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD116" t="b">
@@ -14105,10 +14084,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111743520</v>
+        <v>111743523</v>
       </c>
       <c r="B117" t="n">
-        <v>56398</v>
+        <v>73634</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14117,43 +14096,38 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>100109</v>
+        <v>6426</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="M117" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P117" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>339096.8530521042</v>
+        <v>339009</v>
       </c>
       <c r="R117" t="n">
-        <v>6571013.66294401</v>
+        <v>6571011</v>
       </c>
       <c r="S117" t="n">
         <v>5</v>
@@ -14183,21 +14157,11 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z117" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA117" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="AB117" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD117" t="b">
         <v>0</v>
       </c>
@@ -14206,21 +14170,6 @@
       </c>
       <c r="AG117" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ117" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK117" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO117" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT117" t="inlineStr"/>
       <c r="AW117" t="inlineStr">
@@ -14237,10 +14186,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111743519</v>
+        <v>111743517</v>
       </c>
       <c r="B118" t="n">
-        <v>90666</v>
+        <v>73634</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14253,21 +14202,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>4364</v>
+        <v>6426</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -14277,10 +14226,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>339118.4126724883</v>
+        <v>339278</v>
       </c>
       <c r="R118" t="n">
-        <v>6571062.424656671</v>
+        <v>6571107</v>
       </c>
       <c r="S118" t="n">
         <v>5</v>
@@ -14310,19 +14259,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z118" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA118" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB118" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD118" t="b">
@@ -14349,10 +14288,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111743521</v>
+        <v>111743526</v>
       </c>
       <c r="B119" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14361,25 +14300,25 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E119" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -14389,10 +14328,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>339070.1946752003</v>
+        <v>338870</v>
       </c>
       <c r="R119" t="n">
-        <v>6571001.989220584</v>
+        <v>6571087</v>
       </c>
       <c r="S119" t="n">
         <v>5</v>
@@ -14422,19 +14361,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z119" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA119" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB119" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD119" t="b">
@@ -14461,10 +14390,10 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111743524</v>
+        <v>111743527</v>
       </c>
       <c r="B120" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C120" t="inlineStr">
         <is>
@@ -14473,25 +14402,25 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E120" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I120" t="inlineStr"/>
@@ -14501,10 +14430,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>338949.7235384365</v>
+        <v>338598</v>
       </c>
       <c r="R120" t="n">
-        <v>6571040.381812023</v>
+        <v>6571110</v>
       </c>
       <c r="S120" t="n">
         <v>5</v>
@@ -14534,21 +14463,11 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z120" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA120" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="AB120" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD120" t="b">
         <v>0</v>
       </c>
@@ -14557,21 +14476,6 @@
       </c>
       <c r="AG120" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ120" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK120" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO120" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT120" t="inlineStr"/>
       <c r="AW120" t="inlineStr">
@@ -14588,10 +14492,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111743554</v>
+        <v>111743515</v>
       </c>
       <c r="B121" t="n">
-        <v>88966</v>
+        <v>96348</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14600,25 +14504,25 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>5754</v>
+        <v>220787</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -14628,10 +14532,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>339577.2032005055</v>
+        <v>339442</v>
       </c>
       <c r="R121" t="n">
-        <v>6571127.007499221</v>
+        <v>6571018</v>
       </c>
       <c r="S121" t="n">
         <v>5</v>
@@ -14661,19 +14565,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z121" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA121" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB121" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD121" t="b">
@@ -14700,10 +14594,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111743523</v>
+        <v>111743521</v>
       </c>
       <c r="B122" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14712,25 +14606,25 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -14740,10 +14634,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>339009.0243061834</v>
+        <v>339070</v>
       </c>
       <c r="R122" t="n">
-        <v>6571011.238422027</v>
+        <v>6571002</v>
       </c>
       <c r="S122" t="n">
         <v>5</v>
@@ -14773,19 +14667,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z122" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA122" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB122" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD122" t="b">
@@ -14812,10 +14696,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111743517</v>
+        <v>111743516</v>
       </c>
       <c r="B123" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14824,25 +14708,25 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
@@ -14852,10 +14736,10 @@
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>339278.3213300391</v>
+        <v>339416</v>
       </c>
       <c r="R123" t="n">
-        <v>6571107.378548244</v>
+        <v>6571016</v>
       </c>
       <c r="S123" t="n">
         <v>5</v>
@@ -14885,19 +14769,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z123" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA123" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB123" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD123" t="b">
@@ -14924,10 +14798,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111743549</v>
+        <v>111743520</v>
       </c>
       <c r="B124" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14936,46 +14810,43 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L124" t="inlineStr"/>
-      <c r="N124" t="inlineStr"/>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P124" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>339495.029088294</v>
+        <v>339097</v>
       </c>
       <c r="R124" t="n">
-        <v>6571076.196190646</v>
+        <v>6571014</v>
       </c>
       <c r="S124" t="n">
         <v>5</v>
@@ -15005,30 +14876,34 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z124" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA124" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="AB124" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD124" t="b">
         <v>0</v>
       </c>
       <c r="AE124" t="b">
         <v>0</v>
       </c>
-      <c r="AF124" t="inlineStr"/>
       <c r="AG124" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ124" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK124" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO124" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT124" t="inlineStr"/>
       <c r="AW124" t="inlineStr">
@@ -15045,10 +14920,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111743527</v>
+        <v>111743524</v>
       </c>
       <c r="B125" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -15057,25 +14932,25 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
@@ -15085,10 +14960,10 @@
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>338598.1684531783</v>
+        <v>338950</v>
       </c>
       <c r="R125" t="n">
-        <v>6571109.585305012</v>
+        <v>6571040</v>
       </c>
       <c r="S125" t="n">
         <v>5</v>
@@ -15118,21 +14993,11 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z125" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA125" t="inlineStr">
         <is>
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="AB125" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD125" t="b">
         <v>0</v>
       </c>
@@ -15141,6 +15006,21 @@
       </c>
       <c r="AG125" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ125" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK125" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO125" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT125" t="inlineStr"/>
       <c r="AW125" t="inlineStr">
@@ -15157,7 +15037,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111743516</v>
+        <v>111743546</v>
       </c>
       <c r="B126" t="n">
         <v>96348</v>
@@ -15197,10 +15077,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>339415.5147437509</v>
+        <v>339475</v>
       </c>
       <c r="R126" t="n">
-        <v>6571015.54325202</v>
+        <v>6571114</v>
       </c>
       <c r="S126" t="n">
         <v>5</v>
@@ -15230,19 +15110,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z126" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA126" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB126" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD126" t="b">
@@ -15269,10 +15139,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111743515</v>
+        <v>111743519</v>
       </c>
       <c r="B127" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15281,25 +15151,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -15309,10 +15179,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>339441.7613444271</v>
+        <v>339118</v>
       </c>
       <c r="R127" t="n">
-        <v>6571017.506567059</v>
+        <v>6571062</v>
       </c>
       <c r="S127" t="n">
         <v>5</v>
@@ -15342,19 +15212,9 @@
           <t>2023-08-24</t>
         </is>
       </c>
-      <c r="Z127" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA127" t="inlineStr">
         <is>
           <t>2023-08-24</t>
-        </is>
-      </c>
-      <c r="AB127" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD127" t="b">

--- a/artfynd/A 16645-2023.xlsx
+++ b/artfynd/A 16645-2023.xlsx
@@ -2275,14 +2275,14 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>101321532</v>
+        <v>102889763</v>
       </c>
       <c r="B16" t="n">
         <v>96334</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2310,16 +2310,24 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
       <c r="L16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Bengtsfors, Dls</t>
+          <t>Kasenberg 2, Dls</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -2329,7 +2337,7 @@
         <v>6571190.733271072</v>
       </c>
       <c r="S16" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2351,6 +2359,11 @@
           <t>Vårvik</t>
         </is>
       </c>
+      <c r="X16" t="inlineStr">
+        <is>
+          <t>OD-Ben-0355</t>
+        </is>
+      </c>
       <c r="Y16" t="inlineStr">
         <is>
           <t>2022-06-01</t>
@@ -2358,7 +2371,7 @@
       </c>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA16" t="inlineStr">
@@ -2368,12 +2381,12 @@
       </c>
       <c r="AB16" t="inlineStr">
         <is>
-          <t>09:07</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Två gamla blomstänglar, och två bladrosetter</t>
+          <t>Två vinterståndare och två rosetter.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2389,15 +2402,19 @@
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
         <is>
+          <t>Claes Kannesten</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
           <t>Roger Adolfsson</t>
         </is>
       </c>
-      <c r="AX16" t="inlineStr">
-        <is>
-          <t>Roger Adolfsson</t>
-        </is>
-      </c>
-      <c r="AY16" t="inlineStr"/>
+      <c r="AY16" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -6833,14 +6850,14 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>108234707</v>
+        <v>108400769</v>
       </c>
       <c r="B55" t="n">
         <v>96334</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -6871,10 +6888,21 @@
           <t>10</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
       <c r="P55" t="inlineStr">
         <is>
-          <t>Kasenberg, Dls</t>
+          <t>Kasenberg 10, Dls</t>
         </is>
       </c>
       <c r="Q55" t="n">
@@ -6884,7 +6912,7 @@
         <v>6571049.403228667</v>
       </c>
       <c r="S55" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T55" t="inlineStr">
         <is>
@@ -6906,6 +6934,11 @@
           <t>Vårvik</t>
         </is>
       </c>
+      <c r="X55" t="inlineStr">
+        <is>
+          <t>OD-Ben-0377</t>
+        </is>
+      </c>
       <c r="Y55" t="inlineStr">
         <is>
           <t>2023-04-18</t>
@@ -6913,7 +6946,7 @@
       </c>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA55" t="inlineStr">
@@ -6923,7 +6956,7 @@
       </c>
       <c r="AB55" t="inlineStr">
         <is>
-          <t>10:04</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD55" t="b">
@@ -6932,21 +6965,26 @@
       <c r="AE55" t="b">
         <v>0</v>
       </c>
+      <c r="AF55" t="inlineStr"/>
       <c r="AG55" t="b">
         <v>0</v>
       </c>
       <c r="AT55" t="inlineStr"/>
       <c r="AW55" t="inlineStr">
         <is>
+          <t>Claes Kannesten</t>
+        </is>
+      </c>
+      <c r="AX55" t="inlineStr">
+        <is>
           <t>Roger Adolfsson</t>
         </is>
       </c>
-      <c r="AX55" t="inlineStr">
-        <is>
-          <t>Roger Adolfsson</t>
-        </is>
-      </c>
-      <c r="AY55" t="inlineStr"/>
+      <c r="AY55" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -7072,14 +7110,14 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>108232771</v>
+        <v>108403881</v>
       </c>
       <c r="B57" t="n">
         <v>96334</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -7110,10 +7148,21 @@
           <t>22</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
       <c r="P57" t="inlineStr">
         <is>
-          <t>Kasenberg, Dls</t>
+          <t>Kasenberg 16, Dls</t>
         </is>
       </c>
       <c r="Q57" t="n">
@@ -7123,7 +7172,7 @@
         <v>6571116.926035591</v>
       </c>
       <c r="S57" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T57" t="inlineStr">
         <is>
@@ -7145,6 +7194,11 @@
           <t>Vårvik</t>
         </is>
       </c>
+      <c r="X57" t="inlineStr">
+        <is>
+          <t>OD-Ben-0383</t>
+        </is>
+      </c>
       <c r="Y57" t="inlineStr">
         <is>
           <t>2023-04-18</t>
@@ -7152,7 +7206,7 @@
       </c>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>08:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA57" t="inlineStr">
@@ -7162,7 +7216,7 @@
       </c>
       <c r="AB57" t="inlineStr">
         <is>
-          <t>08:56</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD57" t="b">
@@ -7171,21 +7225,26 @@
       <c r="AE57" t="b">
         <v>0</v>
       </c>
+      <c r="AF57" t="inlineStr"/>
       <c r="AG57" t="b">
         <v>0</v>
       </c>
       <c r="AT57" t="inlineStr"/>
       <c r="AW57" t="inlineStr">
         <is>
+          <t>Claes Kannesten</t>
+        </is>
+      </c>
+      <c r="AX57" t="inlineStr">
+        <is>
           <t>Roger Adolfsson</t>
         </is>
       </c>
-      <c r="AX57" t="inlineStr">
-        <is>
-          <t>Roger Adolfsson</t>
-        </is>
-      </c>
-      <c r="AY57" t="inlineStr"/>
+      <c r="AY57" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -8609,14 +8668,14 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>108668316</v>
+        <v>108698555</v>
       </c>
       <c r="B70" t="n">
         <v>96334</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -8647,10 +8706,21 @@
           <t>7</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
-          <t>Kasenberg, Dls</t>
+          <t>Kasenberg 20, Dls</t>
         </is>
       </c>
       <c r="Q70" t="n">
@@ -8660,7 +8730,7 @@
         <v>6571002.330492718</v>
       </c>
       <c r="S70" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="T70" t="inlineStr">
         <is>
@@ -8682,6 +8752,11 @@
           <t>Vårvik</t>
         </is>
       </c>
+      <c r="X70" t="inlineStr">
+        <is>
+          <t>OD-Ben-0389</t>
+        </is>
+      </c>
       <c r="Y70" t="inlineStr">
         <is>
           <t>2023-05-02</t>
@@ -8689,7 +8764,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8699,7 +8774,7 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>14:59</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8708,32 +8783,37 @@
       <c r="AE70" t="b">
         <v>0</v>
       </c>
+      <c r="AF70" t="inlineStr"/>
       <c r="AG70" t="b">
         <v>0</v>
       </c>
       <c r="AT70" t="inlineStr"/>
       <c r="AW70" t="inlineStr">
         <is>
+          <t>Claes Kannesten</t>
+        </is>
+      </c>
+      <c r="AX70" t="inlineStr">
+        <is>
           <t>Roger Adolfsson</t>
         </is>
       </c>
-      <c r="AX70" t="inlineStr">
-        <is>
-          <t>Roger Adolfsson</t>
-        </is>
-      </c>
-      <c r="AY70" t="inlineStr"/>
+      <c r="AY70" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>108668385</v>
+        <v>108698425</v>
       </c>
       <c r="B71" t="n">
         <v>96334</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Ovaliderad</t>
+          <t>Godkänd baserat på observatörens uppgifter</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -8764,10 +8844,21 @@
           <t>2</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>fullt utvecklade blad</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
       <c r="P71" t="inlineStr">
         <is>
-          <t>Kasenberg, Dls</t>
+          <t>Kasenberg 19, Dls</t>
         </is>
       </c>
       <c r="Q71" t="n">
@@ -8777,7 +8868,7 @@
         <v>6570963.950668153</v>
       </c>
       <c r="S71" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T71" t="inlineStr">
         <is>
@@ -8799,6 +8890,11 @@
           <t>Vårvik</t>
         </is>
       </c>
+      <c r="X71" t="inlineStr">
+        <is>
+          <t>OD-Ben-0388</t>
+        </is>
+      </c>
       <c r="Y71" t="inlineStr">
         <is>
           <t>2023-05-02</t>
@@ -8806,7 +8902,7 @@
       </c>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>15:02</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AA71" t="inlineStr">
@@ -8816,7 +8912,7 @@
       </c>
       <c r="AB71" t="inlineStr">
         <is>
-          <t>15:02</t>
+          <t>00:00</t>
         </is>
       </c>
       <c r="AD71" t="b">
@@ -8825,21 +8921,26 @@
       <c r="AE71" t="b">
         <v>0</v>
       </c>
+      <c r="AF71" t="inlineStr"/>
       <c r="AG71" t="b">
         <v>0</v>
       </c>
       <c r="AT71" t="inlineStr"/>
       <c r="AW71" t="inlineStr">
         <is>
+          <t>Claes Kannesten</t>
+        </is>
+      </c>
+      <c r="AX71" t="inlineStr">
+        <is>
           <t>Roger Adolfsson</t>
         </is>
       </c>
-      <c r="AX71" t="inlineStr">
-        <is>
-          <t>Roger Adolfsson</t>
-        </is>
-      </c>
-      <c r="AY71" t="inlineStr"/>
+      <c r="AY71" t="inlineStr">
+        <is>
+          <t>Floraväkteri Sverige</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -13769,10 +13870,10 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>111743554</v>
+        <v>111743527</v>
       </c>
       <c r="B114" t="n">
-        <v>88966</v>
+        <v>96348</v>
       </c>
       <c r="C114" t="inlineStr">
         <is>
@@ -13781,25 +13882,25 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E114" t="n">
-        <v>5754</v>
+        <v>220787</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Gultoppig fingersvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Ramaria testaceoflava</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>(Bres.) Corner</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I114" t="inlineStr"/>
@@ -13809,10 +13910,10 @@
         </is>
       </c>
       <c r="Q114" t="n">
-        <v>339577</v>
+        <v>338598</v>
       </c>
       <c r="R114" t="n">
-        <v>6571127</v>
+        <v>6571110</v>
       </c>
       <c r="S114" t="n">
         <v>5</v>
@@ -13871,10 +13972,10 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>111743549</v>
+        <v>111743517</v>
       </c>
       <c r="B115" t="n">
-        <v>96348</v>
+        <v>73634</v>
       </c>
       <c r="C115" t="inlineStr">
         <is>
@@ -13883,46 +13984,38 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E115" t="n">
-        <v>220787</v>
+        <v>6426</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>blomning</t>
-        </is>
-      </c>
-      <c r="L115" t="inlineStr"/>
-      <c r="N115" t="inlineStr"/>
       <c r="P115" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q115" t="n">
-        <v>339495</v>
+        <v>339278</v>
       </c>
       <c r="R115" t="n">
-        <v>6571076</v>
+        <v>6571107</v>
       </c>
       <c r="S115" t="n">
         <v>5</v>
@@ -13963,7 +14056,6 @@
       <c r="AE115" t="b">
         <v>0</v>
       </c>
-      <c r="AF115" t="inlineStr"/>
       <c r="AG115" t="b">
         <v>0</v>
       </c>
@@ -13982,10 +14074,10 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>111743551</v>
+        <v>111743524</v>
       </c>
       <c r="B116" t="n">
-        <v>96348</v>
+        <v>94134</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -13994,25 +14086,25 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E116" t="n">
-        <v>220787</v>
+        <v>53</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I116" t="inlineStr"/>
@@ -14022,10 +14114,10 @@
         </is>
       </c>
       <c r="Q116" t="n">
-        <v>339523</v>
+        <v>338950</v>
       </c>
       <c r="R116" t="n">
-        <v>6571091</v>
+        <v>6571040</v>
       </c>
       <c r="S116" t="n">
         <v>5</v>
@@ -14068,6 +14160,21 @@
       </c>
       <c r="AG116" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ116" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK116" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO116" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT116" t="inlineStr"/>
       <c r="AW116" t="inlineStr">
@@ -14084,10 +14191,10 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>111743523</v>
+        <v>111743546</v>
       </c>
       <c r="B117" t="n">
-        <v>73634</v>
+        <v>96348</v>
       </c>
       <c r="C117" t="inlineStr">
         <is>
@@ -14096,25 +14203,25 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E117" t="n">
-        <v>6426</v>
+        <v>220787</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I117" t="inlineStr"/>
@@ -14124,10 +14231,10 @@
         </is>
       </c>
       <c r="Q117" t="n">
-        <v>339009</v>
+        <v>339475</v>
       </c>
       <c r="R117" t="n">
-        <v>6571011</v>
+        <v>6571114</v>
       </c>
       <c r="S117" t="n">
         <v>5</v>
@@ -14186,10 +14293,10 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>111743517</v>
+        <v>111743526</v>
       </c>
       <c r="B118" t="n">
-        <v>73634</v>
+        <v>90666</v>
       </c>
       <c r="C118" t="inlineStr">
         <is>
@@ -14202,21 +14309,21 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>6426</v>
+        <v>4364</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Kattfotslav</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Felipes leucopellaeus</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>(Ach.) Frisch &amp; G.Thor</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I118" t="inlineStr"/>
@@ -14226,10 +14333,10 @@
         </is>
       </c>
       <c r="Q118" t="n">
-        <v>339278</v>
+        <v>338870</v>
       </c>
       <c r="R118" t="n">
-        <v>6571107</v>
+        <v>6571087</v>
       </c>
       <c r="S118" t="n">
         <v>5</v>
@@ -14288,10 +14395,10 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>111743526</v>
+        <v>111743523</v>
       </c>
       <c r="B119" t="n">
-        <v>90666</v>
+        <v>73634</v>
       </c>
       <c r="C119" t="inlineStr">
         <is>
@@ -14304,21 +14411,21 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>4364</v>
+        <v>6426</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Kattfotslav</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Felipes leucopellaeus</t>
         </is>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(Ach.) Frisch &amp; G.Thor</t>
         </is>
       </c>
       <c r="I119" t="inlineStr"/>
@@ -14328,10 +14435,10 @@
         </is>
       </c>
       <c r="Q119" t="n">
-        <v>338870</v>
+        <v>339009</v>
       </c>
       <c r="R119" t="n">
-        <v>6571087</v>
+        <v>6571011</v>
       </c>
       <c r="S119" t="n">
         <v>5</v>
@@ -14390,7 +14497,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>111743527</v>
+        <v>111743521</v>
       </c>
       <c r="B120" t="n">
         <v>96348</v>
@@ -14430,10 +14537,10 @@
         </is>
       </c>
       <c r="Q120" t="n">
-        <v>338598</v>
+        <v>339070</v>
       </c>
       <c r="R120" t="n">
-        <v>6571110</v>
+        <v>6571002</v>
       </c>
       <c r="S120" t="n">
         <v>5</v>
@@ -14492,10 +14599,10 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>111743515</v>
+        <v>111743519</v>
       </c>
       <c r="B121" t="n">
-        <v>96348</v>
+        <v>90666</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -14504,25 +14611,25 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E121" t="n">
-        <v>220787</v>
+        <v>4364</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Dropptaggsvamp</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Hydnellum ferrugineum</t>
         </is>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Fr.:Fr.) P. Karst.</t>
         </is>
       </c>
       <c r="I121" t="inlineStr"/>
@@ -14532,10 +14639,10 @@
         </is>
       </c>
       <c r="Q121" t="n">
-        <v>339442</v>
+        <v>339118</v>
       </c>
       <c r="R121" t="n">
-        <v>6571018</v>
+        <v>6571062</v>
       </c>
       <c r="S121" t="n">
         <v>5</v>
@@ -14594,10 +14701,10 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>111743521</v>
+        <v>111743554</v>
       </c>
       <c r="B122" t="n">
-        <v>96348</v>
+        <v>88966</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -14606,25 +14713,25 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E122" t="n">
-        <v>220787</v>
+        <v>5754</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Gultoppig fingersvamp</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Ramaria testaceoflava</t>
         </is>
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Bres.) Corner</t>
         </is>
       </c>
       <c r="I122" t="inlineStr"/>
@@ -14634,10 +14741,10 @@
         </is>
       </c>
       <c r="Q122" t="n">
-        <v>339070</v>
+        <v>339577</v>
       </c>
       <c r="R122" t="n">
-        <v>6571002</v>
+        <v>6571127</v>
       </c>
       <c r="S122" t="n">
         <v>5</v>
@@ -14696,10 +14803,10 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>111743516</v>
+        <v>111743520</v>
       </c>
       <c r="B123" t="n">
-        <v>96348</v>
+        <v>56398</v>
       </c>
       <c r="C123" t="inlineStr">
         <is>
@@ -14708,38 +14815,43 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E123" t="n">
-        <v>220787</v>
+        <v>100109</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I123" t="inlineStr"/>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="P123" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q123" t="n">
-        <v>339416</v>
+        <v>339097</v>
       </c>
       <c r="R123" t="n">
-        <v>6571016</v>
+        <v>6571014</v>
       </c>
       <c r="S123" t="n">
         <v>5</v>
@@ -14782,6 +14894,21 @@
       </c>
       <c r="AG123" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ123" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK123" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO123" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT123" t="inlineStr"/>
       <c r="AW123" t="inlineStr">
@@ -14798,10 +14925,10 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>111743520</v>
+        <v>111743551</v>
       </c>
       <c r="B124" t="n">
-        <v>56398</v>
+        <v>96348</v>
       </c>
       <c r="C124" t="inlineStr">
         <is>
@@ -14810,43 +14937,38 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E124" t="n">
-        <v>100109</v>
+        <v>220787</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="M124" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="P124" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q124" t="n">
-        <v>339097</v>
+        <v>339523</v>
       </c>
       <c r="R124" t="n">
-        <v>6571014</v>
+        <v>6571091</v>
       </c>
       <c r="S124" t="n">
         <v>5</v>
@@ -14889,21 +15011,6 @@
       </c>
       <c r="AG124" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ124" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK124" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO124" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT124" t="inlineStr"/>
       <c r="AW124" t="inlineStr">
@@ -14920,10 +15027,10 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>111743524</v>
+        <v>111743549</v>
       </c>
       <c r="B125" t="n">
-        <v>94134</v>
+        <v>96348</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -14932,38 +15039,46 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E125" t="n">
-        <v>53</v>
+        <v>220787</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>blomning</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
       <c r="P125" t="inlineStr">
         <is>
           <t>Vårviks-Bottnane, Dls</t>
         </is>
       </c>
       <c r="Q125" t="n">
-        <v>338950</v>
+        <v>339495</v>
       </c>
       <c r="R125" t="n">
-        <v>6571040</v>
+        <v>6571076</v>
       </c>
       <c r="S125" t="n">
         <v>5</v>
@@ -15004,23 +15119,9 @@
       <c r="AE125" t="b">
         <v>0</v>
       </c>
+      <c r="AF125" t="inlineStr"/>
       <c r="AG125" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ125" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK125" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO125" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT125" t="inlineStr"/>
       <c r="AW125" t="inlineStr">
@@ -15037,7 +15138,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>111743546</v>
+        <v>111743516</v>
       </c>
       <c r="B126" t="n">
         <v>96348</v>
@@ -15077,10 +15178,10 @@
         </is>
       </c>
       <c r="Q126" t="n">
-        <v>339475</v>
+        <v>339416</v>
       </c>
       <c r="R126" t="n">
-        <v>6571114</v>
+        <v>6571016</v>
       </c>
       <c r="S126" t="n">
         <v>5</v>
@@ -15139,10 +15240,10 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>111743519</v>
+        <v>111743515</v>
       </c>
       <c r="B127" t="n">
-        <v>90666</v>
+        <v>96348</v>
       </c>
       <c r="C127" t="inlineStr">
         <is>
@@ -15151,25 +15252,25 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E127" t="n">
-        <v>4364</v>
+        <v>220787</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Dropptaggsvamp</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Hydnellum ferrugineum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>(Fr.:Fr.) P. Karst.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I127" t="inlineStr"/>
@@ -15179,10 +15280,10 @@
         </is>
       </c>
       <c r="Q127" t="n">
-        <v>339118</v>
+        <v>339442</v>
       </c>
       <c r="R127" t="n">
-        <v>6571062</v>
+        <v>6571018</v>
       </c>
       <c r="S127" t="n">
         <v>5</v>
